--- a/assets/format/FormatDataBarang.xlsx
+++ b/assets/format/FormatDataBarang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA PKL\CAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\purch_pkl\assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/assets/format/FormatDataBarang.xlsx
+++ b/assets/format/FormatDataBarang.xlsx
@@ -24,24 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>NO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>NO_BARANG</t>
   </si>
   <si>
-    <t>GROUP_NAME</t>
-  </si>
-  <si>
     <t>NAMA_BARANG</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>REMARKS</t>
   </si>
 </sst>
 </file>
@@ -359,33 +347,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/format/FormatDataBarang.xlsx
+++ b/assets/format/FormatDataBarang.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\purch_pkl\assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1A826A-489B-477B-961D-30D2E70DF3DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="9060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,18 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NO_BARANG</t>
   </si>
   <si>
     <t>NAMA_BARANG</t>
   </si>
+  <si>
+    <t>HARGA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,22 +350,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
